--- a/크롤링 키워드.xlsx
+++ b/크롤링 키워드.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yeijeong/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yeijeong/big16/final_project/trading_project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9914A947-29BF-3040-9DF9-3C3B7090D99E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{543CFFF5-AF59-654A-AA0A-E84CBE069EC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4540" yWindow="1140" windowWidth="18540" windowHeight="13900" xr2:uid="{042E66C6-BF13-F643-918F-CFA58FE02B4C}"/>
   </bookViews>
@@ -480,7 +480,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -539,7 +539,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1">
-        <v>45103.946527777778</v>
+        <v>45104.35833333333</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>

--- a/크롤링 키워드.xlsx
+++ b/크롤링 키워드.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yeijeong/big16/final_project/trading_project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\big16\final project\trading_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{543CFFF5-AF59-654A-AA0A-E84CBE069EC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4540" yWindow="1140" windowWidth="18540" windowHeight="13900" xr2:uid="{042E66C6-BF13-F643-918F-CFA58FE02B4C}"/>
+    <workbookView xWindow="4545" yWindow="1140" windowWidth="18540" windowHeight="13905"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="19">
   <si>
     <t>날짜(가능하다면 시간까지)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -116,8 +115,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -156,12 +155,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -476,142 +478,430 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCA8E58F-B383-5A4F-BFEC-33CFABAAA9BC}">
-  <dimension ref="A1:E13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24" customWidth="1"/>
+    <col min="1" max="1" width="24" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="11.5546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="B2" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="B3" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="B4" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
-      <c r="B5" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="1">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
         <v>45104.35833333333</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="1">
         <v>1</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="1">
         <v>100000</v>
       </c>
-      <c r="E6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="B7" t="s">
+      <c r="E6" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="2"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="2"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="2"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="2"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>45110.576388888891</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="B8" t="s">
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>45110.586805555555</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D12" s="1">
+        <v>2000</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>45110.595138888886</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="1">
+        <v>2000</v>
+      </c>
+      <c r="D13" s="1">
+        <v>3000</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>45110.603472222225</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="1">
+        <v>3000</v>
+      </c>
+      <c r="D14" s="1">
+        <v>4000</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="2"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B16" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="B9" t="s">
+      <c r="C16" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D16" s="1">
+        <v>2000</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="2"/>
+      <c r="B17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="1">
+        <v>2000</v>
+      </c>
+      <c r="D17" s="1">
+        <v>3000</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="1">
+        <v>3000</v>
+      </c>
+      <c r="D18" s="1">
+        <v>4000</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B20" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="B10" t="s">
+      <c r="C20" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D20" s="1">
+        <v>2000</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="2"/>
+      <c r="B21" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="1">
+        <v>2000</v>
+      </c>
+      <c r="D21" s="1">
+        <v>3000</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B22" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" s="1">
+        <v>3000</v>
+      </c>
+      <c r="D22" s="1">
+        <v>4000</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B24" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="B11" t="s">
+      <c r="C24" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D24" s="1">
+        <v>2000</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="2"/>
+      <c r="B25" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" s="1">
+        <v>2000</v>
+      </c>
+      <c r="D25" s="1">
+        <v>3000</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B26" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" s="1">
+        <v>3000</v>
+      </c>
+      <c r="D26" s="1">
+        <v>4000</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B28" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="B12" t="s">
+      <c r="C28" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D28" s="1">
+        <v>2000</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="2"/>
+      <c r="B29" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C29" s="1">
+        <v>2000</v>
+      </c>
+      <c r="D29" s="1">
+        <v>3000</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B30" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C30" s="1">
+        <v>3000</v>
+      </c>
+      <c r="D30" s="1">
+        <v>4000</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B32" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="B13" t="s">
+      <c r="C32" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D32" s="1">
+        <v>2000</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="2"/>
+      <c r="B33" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C33" s="1">
+        <v>2000</v>
+      </c>
+      <c r="D33" s="1">
+        <v>3000</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B34" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C34" s="1">
+        <v>3000</v>
+      </c>
+      <c r="D34" s="1">
+        <v>4000</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B36" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E13" t="s">
+      <c r="C36" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D36" s="1">
+        <v>2000</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="2"/>
+      <c r="B37" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C37" s="1">
+        <v>2000</v>
+      </c>
+      <c r="D37" s="1">
+        <v>3000</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B38" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C38" s="1">
+        <v>3000</v>
+      </c>
+      <c r="D38" s="1">
+        <v>4000</v>
+      </c>
+      <c r="E38" s="1" t="s">
         <v>18</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
 </worksheet>
 </file>
--- a/크롤링 키워드.xlsx
+++ b/크롤링 키워드.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\big16\final project\trading_project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yeijeong/big16/final_project/trading_project/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E50DF7D-40EE-5F40-B09D-60715915E6BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4545" yWindow="1140" windowWidth="18540" windowHeight="13905"/>
+    <workbookView xWindow="4040" yWindow="5640" windowWidth="18540" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,23 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="19">
   <si>
     <t>날짜(가능하다면 시간까지)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -115,8 +105,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -141,12 +131,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -155,14 +160,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -478,424 +486,560 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E38"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="24" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="11.5546875" style="1"/>
+    <col min="2" max="2" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="11.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="1:5">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B3" s="1" t="s">
+    <row r="3" spans="1:5">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B4" s="1" t="s">
+    <row r="4" spans="1:5">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B5" s="1" t="s">
+    <row r="5" spans="1:5">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5">
       <c r="A6" s="2">
-        <v>45104.35833333333</v>
-      </c>
-      <c r="B6" s="1" t="s">
+        <v>45105.070833333331</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="3">
         <v>1</v>
       </c>
-      <c r="D6" s="1">
-        <v>100000</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="2"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="2"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="2"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="2"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D6" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="2">
+        <v>45105.074999999997</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="3">
+        <v>4001</v>
+      </c>
+      <c r="D7" s="3">
+        <v>10000</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="2">
+        <v>45109.006249999999</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="3">
+        <v>1</v>
+      </c>
+      <c r="D8" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="2">
+        <v>45109.020833333336</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="3">
+        <v>1000</v>
+      </c>
+      <c r="D9" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="2">
+        <v>45109.03402777778</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="3">
+        <v>2000</v>
+      </c>
+      <c r="D10" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="2">
+        <v>45109.047222222223</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="3">
+        <v>3000</v>
+      </c>
+      <c r="D11" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="2">
         <v>45110.576388888891</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B12" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C12" s="3">
         <v>1</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D12" s="3">
         <v>1000</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="2">
+      <c r="E12" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="2">
         <v>45110.586805555555</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B13" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C13" s="3">
         <v>1000</v>
       </c>
-      <c r="D12" s="1">
-        <v>2000</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="2">
+      <c r="D13" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="2">
         <v>45110.595138888886</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B14" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="1">
-        <v>2000</v>
-      </c>
-      <c r="D13" s="1">
-        <v>3000</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="2">
+      <c r="C14" s="3">
+        <v>2000</v>
+      </c>
+      <c r="D14" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="2">
         <v>45110.603472222225</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B15" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="1">
-        <v>3000</v>
-      </c>
-      <c r="D14" s="1">
+      <c r="C15" s="3">
+        <v>3000</v>
+      </c>
+      <c r="D15" s="3">
         <v>4000</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="2"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B16" s="1" t="s">
+      <c r="E15" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="2"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C17" s="3">
         <v>1000</v>
       </c>
-      <c r="D16" s="1">
-        <v>2000</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="2"/>
-      <c r="B17" s="1" t="s">
+      <c r="D17" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="2"/>
+      <c r="B18" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="1">
-        <v>2000</v>
-      </c>
-      <c r="D17" s="1">
-        <v>3000</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B18" s="1" t="s">
+      <c r="C18" s="3">
+        <v>2000</v>
+      </c>
+      <c r="D18" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="1">
-        <v>3000</v>
-      </c>
-      <c r="D18" s="1">
+      <c r="C19" s="3">
+        <v>3000</v>
+      </c>
+      <c r="D19" s="3">
         <v>4000</v>
       </c>
-      <c r="E18" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B20" s="1" t="s">
+      <c r="E19" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C21" s="3">
         <v>1000</v>
       </c>
-      <c r="D20" s="1">
-        <v>2000</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="2"/>
-      <c r="B21" s="1" t="s">
+      <c r="D21" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="2"/>
+      <c r="B22" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="1">
-        <v>2000</v>
-      </c>
-      <c r="D21" s="1">
-        <v>3000</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B22" s="1" t="s">
+      <c r="C22" s="3">
+        <v>2000</v>
+      </c>
+      <c r="D22" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="1">
-        <v>3000</v>
-      </c>
-      <c r="D22" s="1">
+      <c r="C23" s="3">
+        <v>3000</v>
+      </c>
+      <c r="D23" s="3">
         <v>4000</v>
       </c>
-      <c r="E22" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B24" s="1" t="s">
+      <c r="E23" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C25" s="3">
         <v>1000</v>
       </c>
-      <c r="D24" s="1">
-        <v>2000</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="2"/>
-      <c r="B25" s="1" t="s">
+      <c r="D25" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="2"/>
+      <c r="B26" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="1">
-        <v>2000</v>
-      </c>
-      <c r="D25" s="1">
-        <v>3000</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B26" s="1" t="s">
+      <c r="C26" s="3">
+        <v>2000</v>
+      </c>
+      <c r="D26" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C26" s="1">
-        <v>3000</v>
-      </c>
-      <c r="D26" s="1">
+      <c r="C27" s="3">
+        <v>3000</v>
+      </c>
+      <c r="D27" s="3">
         <v>4000</v>
       </c>
-      <c r="E26" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B28" s="1" t="s">
+      <c r="E27" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C29" s="3">
         <v>1000</v>
       </c>
-      <c r="D28" s="1">
-        <v>2000</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="2"/>
-      <c r="B29" s="1" t="s">
+      <c r="D29" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="2"/>
+      <c r="B30" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C29" s="1">
-        <v>2000</v>
-      </c>
-      <c r="D29" s="1">
-        <v>3000</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B30" s="1" t="s">
+      <c r="C30" s="3">
+        <v>2000</v>
+      </c>
+      <c r="D30" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C30" s="1">
-        <v>3000</v>
-      </c>
-      <c r="D30" s="1">
+      <c r="C31" s="3">
+        <v>3000</v>
+      </c>
+      <c r="D31" s="3">
         <v>4000</v>
       </c>
-      <c r="E30" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B32" s="1" t="s">
+      <c r="E31" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C32" s="1">
+      <c r="C33" s="3">
         <v>1000</v>
       </c>
-      <c r="D32" s="1">
-        <v>2000</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="2"/>
-      <c r="B33" s="1" t="s">
+      <c r="D33" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="2"/>
+      <c r="B34" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C33" s="1">
-        <v>2000</v>
-      </c>
-      <c r="D33" s="1">
-        <v>3000</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B34" s="1" t="s">
+      <c r="C34" s="3">
+        <v>2000</v>
+      </c>
+      <c r="D34" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="3"/>
+      <c r="B35" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C34" s="1">
-        <v>3000</v>
-      </c>
-      <c r="D34" s="1">
+      <c r="C35" s="3">
+        <v>3000</v>
+      </c>
+      <c r="D35" s="3">
         <v>4000</v>
       </c>
-      <c r="E34" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B36" s="1" t="s">
+      <c r="E35" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="3"/>
+      <c r="B37" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C36" s="1">
+      <c r="C37" s="3">
         <v>1000</v>
       </c>
-      <c r="D36" s="1">
-        <v>2000</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="2"/>
-      <c r="B37" s="1" t="s">
+      <c r="D37" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="2"/>
+      <c r="B38" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C37" s="1">
-        <v>2000</v>
-      </c>
-      <c r="D37" s="1">
-        <v>3000</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B38" s="1" t="s">
+      <c r="C38" s="3">
+        <v>2000</v>
+      </c>
+      <c r="D38" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="3"/>
+      <c r="B39" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C38" s="1">
-        <v>3000</v>
-      </c>
-      <c r="D38" s="1">
+      <c r="C39" s="3">
+        <v>3000</v>
+      </c>
+      <c r="D39" s="3">
         <v>4000</v>
       </c>
-      <c r="E38" s="1" t="s">
+      <c r="E39" s="3" t="s">
         <v>18</v>
       </c>
     </row>
